--- a/各类堆栈.xlsx
+++ b/各类堆栈.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony Tian\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD0F37-EAD2-43A3-8503-476424D36C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="非娱乐向2" sheetId="3" r:id="rId1"/>
     <sheet name="娱乐主题" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="212">
   <si>
     <t>日程</t>
   </si>
@@ -98,6 +105,9 @@
     <t>中期安排</t>
   </si>
   <si>
+    <t>聚宽+小盘</t>
+  </si>
+  <si>
     <t>Lingtool前置 - 英语库</t>
   </si>
   <si>
@@ -128,12 +138,18 @@
     <t>宝可梦Nuz</t>
   </si>
   <si>
+    <t>藏区</t>
+  </si>
+  <si>
     <t>编程</t>
   </si>
   <si>
     <t>心理 - 观呼吸</t>
   </si>
   <si>
+    <t>理财（保险、量化、发哥未来学）</t>
+  </si>
+  <si>
     <t>all weather investment</t>
   </si>
   <si>
@@ -173,6 +189,9 @@
     <t>佛法修炼</t>
   </si>
   <si>
+    <t>答谢宴</t>
+  </si>
+  <si>
     <t>考团SEO</t>
   </si>
   <si>
@@ -182,6 +201,9 @@
     <t>知乎 + 主权长文</t>
   </si>
   <si>
+    <t>剑道 - 海贼王 - 35岁</t>
+  </si>
+  <si>
     <t>如何对待游戏主播这个职业</t>
   </si>
   <si>
@@ -203,6 +225,9 @@
     <t>训练 - 库里，tennis，刻意</t>
   </si>
   <si>
+    <t>遗产和遗嘱</t>
+  </si>
+  <si>
     <t>风流TG</t>
   </si>
   <si>
@@ -224,6 +249,9 @@
     <t>创作 - 产品 / 文学/音乐/视频</t>
   </si>
   <si>
+    <t>冻卵</t>
+  </si>
+  <si>
     <t>Sleep项目</t>
   </si>
   <si>
@@ -236,19 +264,28 @@
     <t>红楼梦</t>
   </si>
   <si>
+    <t>开放关系</t>
+  </si>
+  <si>
     <t>电视剧情景截图 + 重Si + 众筹</t>
   </si>
   <si>
     <t>FaEnglish</t>
   </si>
   <si>
+    <t>去日本感到的深深的孤独</t>
+  </si>
+  <si>
     <t>游戏室</t>
   </si>
   <si>
     <t>微信形象构建</t>
   </si>
   <si>
-    <t>冻卵</t>
+    <t>读书</t>
+  </si>
+  <si>
+    <t>加拿大要怎么办</t>
   </si>
   <si>
     <t>微信收藏</t>
@@ -257,7 +294,7 @@
     <t>日本战国</t>
   </si>
   <si>
-    <t>开放关系</t>
+    <t>父母</t>
   </si>
   <si>
     <t>LSAT题库</t>
@@ -272,9 +309,15 @@
     <t>GPT整理</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>电报“创作者付费群聚合”</t>
   </si>
   <si>
+    <t>体验陪同 / 本地向导区块链</t>
+  </si>
+  <si>
     <t>小 - 微信好友/微信群</t>
   </si>
   <si>
@@ -284,7 +327,7 @@
     <t>251121：</t>
   </si>
   <si>
-    <t>父母</t>
+    <t>保险</t>
   </si>
   <si>
     <t>水印</t>
@@ -302,9 +345,6 @@
     <t>编程+灰产</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>面试工具</t>
   </si>
   <si>
@@ -320,18 +360,12 @@
     <t>宪法流程化</t>
   </si>
   <si>
-    <t>保险</t>
-  </si>
-  <si>
     <t>AI身体健康</t>
   </si>
   <si>
     <t>MangaReader</t>
   </si>
   <si>
-    <t>体验陪同 / 本地向导区块链</t>
-  </si>
-  <si>
     <t>魔兽 - 50岁，中国象棋</t>
   </si>
   <si>
@@ -410,234 +444,122 @@
     <t>美人</t>
   </si>
   <si>
+    <t>龙和地下城</t>
+  </si>
+  <si>
     <t>上古与潜意识</t>
   </si>
   <si>
+    <t>贵族历史+主权骑士</t>
+  </si>
+  <si>
+    <t>理工男战争史</t>
+  </si>
+  <si>
+    <t>极端历史</t>
+  </si>
+  <si>
+    <t>历史框架</t>
+  </si>
+  <si>
+    <t>FE一起玩</t>
+  </si>
+  <si>
+    <t>双雪涛与小说/电影</t>
+  </si>
+  <si>
+    <t>音乐鉴赏与创作</t>
+  </si>
+  <si>
+    <t>90/00怀旧</t>
+  </si>
+  <si>
+    <t>宝可梦大世界</t>
+  </si>
+  <si>
+    <t>MBTI</t>
+  </si>
+  <si>
+    <t>日本美学</t>
+  </si>
+  <si>
+    <t>索引派</t>
+  </si>
+  <si>
+    <t>装修建筑设计</t>
+  </si>
+  <si>
+    <t>毒舌</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>综艺</t>
+  </si>
+  <si>
+    <t>福利连</t>
+  </si>
+  <si>
     <t>商朝</t>
   </si>
   <si>
-    <t>早期人类学</t>
-  </si>
-  <si>
-    <t>张承志</t>
-  </si>
-  <si>
-    <t>理工男战争史</t>
-  </si>
-  <si>
-    <t>渤海小li</t>
-  </si>
-  <si>
-    <t>稚嫩的魔法师</t>
-  </si>
-  <si>
-    <t>历史框架</t>
+    <t>十字军之王</t>
   </si>
   <si>
     <t>刘仲敬的历史美学体系</t>
   </si>
   <si>
-    <t>FE一起玩</t>
+    <t>LanParty</t>
+  </si>
+  <si>
+    <t>诗歌</t>
+  </si>
+  <si>
+    <t>朱紫</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>海贼王</t>
+  </si>
+  <si>
+    <t>漫画</t>
+  </si>
+  <si>
+    <t>书籍阅读、总结和输出</t>
+  </si>
+  <si>
+    <t>加缪</t>
+  </si>
+  <si>
+    <t>日本 线下恋爱</t>
+  </si>
+  <si>
+    <t>龙枪小说</t>
+  </si>
+  <si>
+    <t>古语言（易经、尚书、诗经）</t>
+  </si>
+  <si>
+    <t>太平天国</t>
   </si>
   <si>
     <t>魔法师</t>
   </si>
   <si>
-    <t>邹节棍</t>
-  </si>
-  <si>
-    <t>双雪涛与小说/电影</t>
-  </si>
-  <si>
-    <t>诗歌</t>
-  </si>
-  <si>
     <t>Si/Fi留存</t>
   </si>
   <si>
-    <t>宝可梦大世界</t>
-  </si>
-  <si>
-    <t>MBTI</t>
-  </si>
-  <si>
-    <t>三变：高平陵、宣武门、土木堡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论体系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我每天工作x小时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔尔文明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终将军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本美学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引派</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海贼王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红楼梦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>90/00怀旧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏区</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑道 - 海贼王 - 35岁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙和地下城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏：艾尔登</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏：黑魂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利连</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙枪小说</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神界原罪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修建筑设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>万智牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫画</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月比赛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩登</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏：暗黑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主权骑士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清月已经不困</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米米沙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李硕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X博士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵族历史+主权骑士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字军之王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒舌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚宽+小盘</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LanParty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>古语言（易经、尚书、诗经）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>某个帝国时代</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光头居士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱紫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐鉴赏与创作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A</t>
     </r>
     <r>
@@ -645,84 +567,135 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>-Z</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>清月已经不困</t>
+  </si>
+  <si>
+    <t>哲学家大榜</t>
+  </si>
+  <si>
+    <t>神界原罪</t>
+  </si>
+  <si>
+    <t>早期人类学</t>
+  </si>
+  <si>
+    <t>渤海小li</t>
+  </si>
+  <si>
+    <t>满洲国</t>
+  </si>
+  <si>
+    <t>稚嫩的魔法师</t>
+  </si>
+  <si>
+    <t>邹节棍</t>
+  </si>
+  <si>
+    <t>理论体系</t>
+  </si>
+  <si>
+    <t>训练</t>
+  </si>
+  <si>
+    <t>小米米沙</t>
+  </si>
+  <si>
+    <t>张承志</t>
+  </si>
+  <si>
+    <t>最终将军</t>
+  </si>
+  <si>
+    <t>红色高棉</t>
+  </si>
+  <si>
+    <t>乔尔文明</t>
+  </si>
+  <si>
+    <t>我每天工作x小时</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>摩登</t>
+  </si>
+  <si>
+    <t>李硕</t>
+  </si>
+  <si>
+    <t>游戏：艾尔登</t>
+  </si>
+  <si>
+    <t>三变：高平陵、宣武门、土木堡</t>
+  </si>
+  <si>
+    <t>写小说</t>
+  </si>
+  <si>
+    <t>某个帝国时代</t>
+  </si>
+  <si>
+    <t>2月比赛</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>游戏：黑魂</t>
+  </si>
+  <si>
+    <t>拿破仑</t>
+  </si>
+  <si>
+    <t>光头居士</t>
+  </si>
+  <si>
+    <t>X博士</t>
+  </si>
+  <si>
+    <t>游戏：暗黑</t>
+  </si>
+  <si>
+    <t>二战</t>
+  </si>
+  <si>
+    <t>马伯庸</t>
+  </si>
+  <si>
+    <t>EDH娱乐</t>
+  </si>
+  <si>
+    <t>古罗马</t>
+  </si>
+  <si>
+    <t>剑道/浪客行/之狼/海贼王</t>
   </si>
   <si>
     <t>彝族歌曲、电影、文化、文学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDH娱乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加缪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲学家大榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>书籍阅读、总结和输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本 线下恋爱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>综艺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>去日本感到的深深的孤独</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>写小说</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马伯庸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>加拿大要怎么办</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>读书</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>答谢宴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财（保险、量化、发哥未来学）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗产和遗嘱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +707,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -743,38 +715,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -783,20 +723,349 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -854,25 +1123,276 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -882,73 +1402,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="连接符: 曲线 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F10D78-4334-3733-CB18-1B6F6398D0A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="连接符: 曲线 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13144500" y="714375"/>
+          <a:off x="14930120" y="714375"/>
           <a:ext cx="2743200" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
@@ -985,26 +1528,20 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="连接符: 曲线 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F290DEC8-BA19-4433-9853-73B386668E2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="连接符: 曲线 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="866775" y="781050"/>
-          <a:ext cx="2228850" cy="314325"/>
+          <a:off x="1200150" y="781050"/>
+          <a:ext cx="9367520" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -1287,19 +1824,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="29.75" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
@@ -1307,7 +1844,7 @@
     <col min="10" max="10" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,677 +1912,707 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:23">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>182</v>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>158</v>
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="K5" s="11"/>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
       <c r="L6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D7" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D9" s="8" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="D10" t="s">
         <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="E15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="G17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="J19" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="J20" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="G24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="G25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="L27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="G28" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="L28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L29" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L30" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="L29" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="L30" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="23.4333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="G2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="G5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" t="s">
-        <v>194</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" t="s">
-        <v>167</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="P6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>191</v>
+      <c r="D7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/各类堆栈.xlsx
+++ b/各类堆栈.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="217">
   <si>
     <t>日程</t>
   </si>
@@ -498,6 +498,9 @@
     <t>综艺</t>
   </si>
   <si>
+    <t>铁元</t>
+  </si>
+  <si>
     <t>福利连</t>
   </si>
   <si>
@@ -535,6 +538,9 @@
   </si>
   <si>
     <t>日本 线下恋爱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tie'yua </t>
   </si>
   <si>
     <t>龙枪小说</t>
@@ -583,6 +589,9 @@
     <t>哲学家大榜</t>
   </si>
   <si>
+    <t>建筑</t>
+  </si>
+  <si>
     <t>神界原罪</t>
   </si>
   <si>
@@ -610,6 +619,9 @@
     <t>小米米沙</t>
   </si>
   <si>
+    <t>城市</t>
+  </si>
+  <si>
     <t>张承志</t>
   </si>
   <si>
@@ -632,6 +644,9 @@
   </si>
   <si>
     <t>李硕</t>
+  </si>
+  <si>
+    <t>怀旧</t>
   </si>
   <si>
     <t>游戏：艾尔登</t>
@@ -695,7 +710,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +719,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1241,137 +1264,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,6 +1408,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1913,7 +1939,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1931,19 +1957,19 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="P2" t="s">
@@ -1960,7 +1986,7 @@
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
@@ -1969,25 +1995,25 @@
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -2013,7 +2039,7 @@
       <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F4" t="s">
@@ -2028,7 +2054,7 @@
       <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>59</v>
       </c>
       <c r="N4" t="s">
@@ -2045,13 +2071,13 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G5" t="s">
@@ -2060,7 +2086,7 @@
       <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="12"/>
       <c r="L5" t="s">
         <v>69</v>
       </c>
@@ -2072,7 +2098,7 @@
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2229,7 +2255,7 @@
       <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2237,7 +2263,7 @@
       <c r="G16" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2302,7 +2328,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L28" t="s">
@@ -2310,12 +2336,12 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2329,10 +2355,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2351,7 +2377,7 @@
     <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -2412,199 +2438,214 @@
       <c r="T1" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>169</v>
+      </c>
+      <c r="U2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
         <v>77</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>179</v>
+      </c>
+      <c r="U3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>189</v>
+      </c>
+      <c r="U4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>198</v>
+      </c>
+      <c r="U5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="B7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="B10" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
         <v>87</v>

--- a/各类堆栈.xlsx
+++ b/各类堆栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="非娱乐向2" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="214">
   <si>
     <t>日程</t>
   </si>
@@ -108,340 +108,331 @@
     <t>聚宽+小盘</t>
   </si>
   <si>
+    <t>知乎 + 会诊</t>
+  </si>
+  <si>
+    <t>主权骑士</t>
+  </si>
+  <si>
+    <t>社交 - 35岁，5h/周</t>
+  </si>
+  <si>
+    <t>手机备忘录</t>
+  </si>
+  <si>
+    <t>音乐歌曲</t>
+  </si>
+  <si>
+    <t>发哥未来学</t>
+  </si>
+  <si>
+    <t>西部世界</t>
+  </si>
+  <si>
+    <t>电锯人（和电影）</t>
+  </si>
+  <si>
+    <t>宝可梦Nuz</t>
+  </si>
+  <si>
+    <t>编程</t>
+  </si>
+  <si>
+    <t>心理 - 观呼吸</t>
+  </si>
+  <si>
+    <t>理财（保险、量化、发哥未来学）</t>
+  </si>
+  <si>
+    <t>知乎+ polymarket</t>
+  </si>
+  <si>
+    <t>篮球 - 40岁，10h/周</t>
+  </si>
+  <si>
+    <t>如何对待自己买的牌</t>
+  </si>
+  <si>
+    <t>桌面</t>
+  </si>
+  <si>
+    <t>小雕像</t>
+  </si>
+  <si>
+    <t>黑道家族</t>
+  </si>
+  <si>
+    <t>宝可梦Z-A</t>
+  </si>
+  <si>
+    <t>自媒体</t>
+  </si>
+  <si>
+    <t>佛法修炼</t>
+  </si>
+  <si>
+    <t>答谢宴</t>
+  </si>
+  <si>
+    <t>风流TG</t>
+  </si>
+  <si>
+    <t>知乎 + 主权长文</t>
+  </si>
+  <si>
+    <t>剑道 - 海贼王 - 35岁</t>
+  </si>
+  <si>
+    <t>如何对待游戏主播这个职业</t>
+  </si>
+  <si>
+    <t>知乎总结</t>
+  </si>
+  <si>
+    <t>刘仲敬</t>
+  </si>
+  <si>
+    <t>发哥电影脉络总结</t>
+  </si>
+  <si>
+    <t>魔兽教练</t>
+  </si>
+  <si>
+    <t>英雄无敌</t>
+  </si>
+  <si>
+    <t>训练 - 库里，tennis，刻意</t>
+  </si>
+  <si>
+    <t>遗产和遗嘱</t>
+  </si>
+  <si>
+    <t>考团SEO</t>
+  </si>
+  <si>
     <t>Lingtool前置 - 英语库</t>
   </si>
   <si>
-    <t>知乎 + 会诊</t>
-  </si>
-  <si>
-    <t>主权骑士</t>
-  </si>
-  <si>
-    <t>社交 - 35岁，5h/周</t>
-  </si>
-  <si>
-    <t>手机备忘录</t>
-  </si>
-  <si>
-    <t>音乐歌曲</t>
-  </si>
-  <si>
-    <t>发哥未来学</t>
-  </si>
-  <si>
-    <t>西部世界</t>
-  </si>
-  <si>
-    <t>电锯人（和电影）</t>
-  </si>
-  <si>
-    <t>宝可梦Nuz</t>
-  </si>
-  <si>
-    <t>藏区</t>
-  </si>
-  <si>
-    <t>编程</t>
-  </si>
-  <si>
-    <t>心理 - 观呼吸</t>
-  </si>
-  <si>
-    <t>理财（保险、量化、发哥未来学）</t>
+    <t>你咋跑了（知乎 + b站）</t>
+  </si>
+  <si>
+    <t>韩剧项目</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>押井守的书</t>
+  </si>
+  <si>
+    <t>暗黑破坏</t>
+  </si>
+  <si>
+    <t>2.16春节</t>
+  </si>
+  <si>
+    <t>冻卵</t>
+  </si>
+  <si>
+    <t>牢A</t>
+  </si>
+  <si>
+    <t>Sleep项目</t>
+  </si>
+  <si>
+    <t>出门的焦虑、贪心</t>
+  </si>
+  <si>
+    <t>万智牌</t>
+  </si>
+  <si>
+    <t>红楼梦</t>
+  </si>
+  <si>
+    <t>开放关系</t>
+  </si>
+  <si>
+    <t>Transight</t>
+  </si>
+  <si>
+    <t>电视剧情景截图 + 重Si + 众筹</t>
+  </si>
+  <si>
+    <t>FaEnglish</t>
+  </si>
+  <si>
+    <t>去日本感到的深深的孤独</t>
+  </si>
+  <si>
+    <t>游戏室</t>
+  </si>
+  <si>
+    <t>微信形象构建</t>
+  </si>
+  <si>
+    <t>创作 - 产品 / 文学/音乐/视频</t>
+  </si>
+  <si>
+    <t>读书</t>
+  </si>
+  <si>
+    <t>AI身体健康</t>
+  </si>
+  <si>
+    <t>加拿大要怎么办</t>
+  </si>
+  <si>
+    <t>微信收藏</t>
+  </si>
+  <si>
+    <t>日本战国</t>
+  </si>
+  <si>
+    <t>父母</t>
+  </si>
+  <si>
+    <t>三毒日记</t>
+  </si>
+  <si>
+    <t>推特+onlyfans平台</t>
+  </si>
+  <si>
+    <t>Homebar合伙人</t>
+  </si>
+  <si>
+    <t>GPT整理</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>LSAT题库</t>
+  </si>
+  <si>
+    <t>电报“创作者付费群聚合”</t>
+  </si>
+  <si>
+    <t>体验陪同 / 本地向导区块链</t>
+  </si>
+  <si>
+    <t>小 - 微信好友/微信群</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>水印</t>
+  </si>
+  <si>
+    <t>名人mbti</t>
+  </si>
+  <si>
+    <t>笑话打脸网</t>
+  </si>
+  <si>
+    <t>古文学习</t>
+  </si>
+  <si>
+    <t>面试工具</t>
+  </si>
+  <si>
+    <t>歌词网</t>
+  </si>
+  <si>
+    <t>知识星球思域内容</t>
+  </si>
+  <si>
+    <t>剑道 - 剑道 - 50岁</t>
+  </si>
+  <si>
+    <t>MangaReader</t>
+  </si>
+  <si>
+    <t>魔兽 - 50岁，中国象棋</t>
+  </si>
+  <si>
+    <t>Twitter - Pervfans</t>
+  </si>
+  <si>
+    <t>AI仲裁协商平台</t>
+  </si>
+  <si>
+    <t>万智牌 - 50岁，20h/周</t>
+  </si>
+  <si>
+    <t>polymarket</t>
+  </si>
+  <si>
+    <t>宝可梦 - 50岁，和孩子，5h/周</t>
+  </si>
+  <si>
+    <t>价值观意识形态分类器</t>
+  </si>
+  <si>
+    <t>英语 - 100岁，碎片时间</t>
+  </si>
+  <si>
+    <t>终身语音日记 + 硬件</t>
+  </si>
+  <si>
+    <t>名人知识库</t>
+  </si>
+  <si>
+    <t>帝国时代 - 50岁，中国象棋</t>
+  </si>
+  <si>
+    <t>唱歌 - 40岁，求偶期</t>
+  </si>
+  <si>
+    <t>钢琴 - 80岁，可以一直</t>
+  </si>
+  <si>
+    <t>高尔夫 - 80岁，川普</t>
+  </si>
+  <si>
+    <t>电子斗蛐蛐</t>
+  </si>
+  <si>
+    <t>小白翻译器</t>
+  </si>
+  <si>
+    <t>马斯克/黄仁勋工具</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>南方车站的聚会</t>
+  </si>
+  <si>
+    <t>办公室</t>
+  </si>
+  <si>
+    <t>黑骏马</t>
   </si>
   <si>
     <t>all weather investment</t>
   </si>
   <si>
-    <t>EvoPod</t>
-  </si>
-  <si>
-    <t>知乎+ polymarket</t>
+    <t>抢票网站（争议）</t>
+  </si>
+  <si>
+    <t>大开眼戒</t>
+  </si>
+  <si>
+    <t>美衣</t>
+  </si>
+  <si>
+    <t>美人</t>
+  </si>
+  <si>
+    <t>放弃</t>
   </si>
   <si>
     <t>海豹区</t>
-  </si>
-  <si>
-    <t>篮球 - 40岁，10h/周</t>
-  </si>
-  <si>
-    <t>如何对待自己买的牌</t>
-  </si>
-  <si>
-    <t>桌面</t>
-  </si>
-  <si>
-    <t>小雕像</t>
-  </si>
-  <si>
-    <t>黑骏马</t>
-  </si>
-  <si>
-    <t>黑道家族</t>
-  </si>
-  <si>
-    <t>宝可梦Z-A</t>
-  </si>
-  <si>
-    <t>自媒体</t>
-  </si>
-  <si>
-    <t>佛法修炼</t>
-  </si>
-  <si>
-    <t>答谢宴</t>
-  </si>
-  <si>
-    <t>考团SEO</t>
-  </si>
-  <si>
-    <t>三毒日记</t>
-  </si>
-  <si>
-    <t>知乎 + 主权长文</t>
-  </si>
-  <si>
-    <t>剑道 - 海贼王 - 35岁</t>
-  </si>
-  <si>
-    <t>如何对待游戏主播这个职业</t>
-  </si>
-  <si>
-    <t>知乎总结</t>
-  </si>
-  <si>
-    <t>刘仲敬</t>
-  </si>
-  <si>
-    <t>发哥电影脉络总结</t>
-  </si>
-  <si>
-    <t>魔兽教练</t>
-  </si>
-  <si>
-    <t>英雄无敌</t>
-  </si>
-  <si>
-    <t>训练 - 库里，tennis，刻意</t>
-  </si>
-  <si>
-    <t>遗产和遗嘱</t>
-  </si>
-  <si>
-    <t>风流TG</t>
-  </si>
-  <si>
-    <t>你咋跑了（知乎 + b站）</t>
-  </si>
-  <si>
-    <t>韩剧项目</t>
-  </si>
-  <si>
-    <t>NAS</t>
-  </si>
-  <si>
-    <t>押井守的书</t>
-  </si>
-  <si>
-    <t>暗黑破坏</t>
-  </si>
-  <si>
-    <t>创作 - 产品 / 文学/音乐/视频</t>
-  </si>
-  <si>
-    <t>冻卵</t>
-  </si>
-  <si>
-    <t>Sleep项目</t>
-  </si>
-  <si>
-    <t>出门的焦虑、贪心</t>
-  </si>
-  <si>
-    <t>万智牌</t>
-  </si>
-  <si>
-    <t>红楼梦</t>
-  </si>
-  <si>
-    <t>开放关系</t>
-  </si>
-  <si>
-    <t>电视剧情景截图 + 重Si + 众筹</t>
-  </si>
-  <si>
-    <t>FaEnglish</t>
-  </si>
-  <si>
-    <t>去日本感到的深深的孤独</t>
-  </si>
-  <si>
-    <t>游戏室</t>
-  </si>
-  <si>
-    <t>微信形象构建</t>
-  </si>
-  <si>
-    <t>读书</t>
-  </si>
-  <si>
-    <t>加拿大要怎么办</t>
-  </si>
-  <si>
-    <t>微信收藏</t>
-  </si>
-  <si>
-    <t>日本战国</t>
-  </si>
-  <si>
-    <t>父母</t>
-  </si>
-  <si>
-    <t>LSAT题库</t>
-  </si>
-  <si>
-    <t>推特+onlyfans平台</t>
-  </si>
-  <si>
-    <t>Homebar合伙人</t>
-  </si>
-  <si>
-    <t>GPT整理</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>电报“创作者付费群聚合”</t>
-  </si>
-  <si>
-    <t>体验陪同 / 本地向导区块链</t>
-  </si>
-  <si>
-    <t>小 - 微信好友/微信群</t>
-  </si>
-  <si>
-    <t>日语</t>
-  </si>
-  <si>
-    <t>251121：</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>水印</t>
-  </si>
-  <si>
-    <t>名人mbti</t>
-  </si>
-  <si>
-    <t>笑话打脸网</t>
-  </si>
-  <si>
-    <t>古文学习</t>
-  </si>
-  <si>
-    <t>编程+灰产</t>
-  </si>
-  <si>
-    <t>面试工具</t>
-  </si>
-  <si>
-    <t>歌词网</t>
-  </si>
-  <si>
-    <t>知识星球思域内容</t>
-  </si>
-  <si>
-    <t>剑道 - 剑道 - 50岁</t>
-  </si>
-  <si>
-    <t>宪法流程化</t>
-  </si>
-  <si>
-    <t>AI身体健康</t>
-  </si>
-  <si>
-    <t>MangaReader</t>
-  </si>
-  <si>
-    <t>魔兽 - 50岁，中国象棋</t>
-  </si>
-  <si>
-    <t>早灰，编，教。运动。下午球。晚饭。</t>
-  </si>
-  <si>
-    <t>Twitter - Pervfans</t>
-  </si>
-  <si>
-    <t>AI仲裁协商平台</t>
-  </si>
-  <si>
-    <t>万智牌 - 50岁，20h/周</t>
-  </si>
-  <si>
-    <t>polymarket</t>
-  </si>
-  <si>
-    <t>宝可梦 - 50岁，和孩子，5h/周</t>
-  </si>
-  <si>
-    <t>价值观意识形态分类器</t>
-  </si>
-  <si>
-    <t>英语 - 100岁，碎片时间</t>
-  </si>
-  <si>
-    <t>终身语音日记 + 硬件</t>
-  </si>
-  <si>
-    <t>名人知识库</t>
-  </si>
-  <si>
-    <t>帝国时代 - 50岁，中国象棋</t>
-  </si>
-  <si>
-    <t>唱歌 - 40岁，求偶期</t>
-  </si>
-  <si>
-    <t>钢琴 - 80岁，可以一直</t>
-  </si>
-  <si>
-    <t>1月日本</t>
-  </si>
-  <si>
-    <t>高尔夫 - 80岁，川普</t>
-  </si>
-  <si>
-    <t>2.16春节</t>
-  </si>
-  <si>
-    <t>电子斗蛐蛐</t>
-  </si>
-  <si>
-    <t>小白翻译器</t>
-  </si>
-  <si>
-    <t>马斯克/黄仁勋工具</t>
-  </si>
-  <si>
-    <t>南方车站的聚会</t>
-  </si>
-  <si>
-    <t>办公室</t>
-  </si>
-  <si>
-    <t>抢票网站（争议）</t>
-  </si>
-  <si>
-    <t>大开眼戒</t>
-  </si>
-  <si>
-    <t>美衣</t>
-  </si>
-  <si>
-    <t>美人</t>
   </si>
   <si>
     <t>龙和地下城</t>
@@ -710,23 +701,8 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1088,7 +1064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1125,6 +1101,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1141,9 +1130,33 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1264,174 +1277,189 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1856,15 +1884,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="9" max="9" width="28.25" customWidth="1"/>
     <col min="10" max="10" width="24.75" customWidth="1"/>
@@ -1939,7 +1968,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1948,401 +1977,401 @@
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+    </row>
+    <row r="3" spans="1:23">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="L3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" spans="1:23">
+      <c r="B4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P3" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="V3" t="s">
+      <c r="J4" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="B4" t="s">
+      <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="N4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="O4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
+      <c r="U4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
+      <c r="V4" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:23">
+      <c r="C5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K4" t="s">
+      <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="E5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N4" t="s">
+      <c r="F5" t="s">
         <v>60</v>
       </c>
-      <c r="O4" t="s">
+      <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="U4" t="s">
+      <c r="I5" t="s">
         <v>62</v>
       </c>
-      <c r="V4" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="C5" s="7" t="s">
+      <c r="O5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="V5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I5" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" t="s">
+      <c r="I6" t="s">
         <v>69</v>
       </c>
-      <c r="O5" t="s">
+      <c r="K6" t="s">
         <v>70</v>
       </c>
-      <c r="V5" t="s">
+      <c r="L6" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="C6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="D7" s="2" t="s">
+      <c r="L7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
+      <c r="W7" t="s">
         <v>79</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="1:23">
+      <c r="C8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K7" t="s">
+      <c r="D8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L7" t="s">
+      <c r="E8" t="s">
         <v>82</v>
       </c>
-      <c r="W7" t="s">
+      <c r="K8" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="D8" s="2" t="s">
+      <c r="L8" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="N8" t="s">
         <v>85</v>
       </c>
-      <c r="L8" t="s">
+    </row>
+    <row r="9" spans="1:23">
+      <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N8" t="s">
+      <c r="E9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="D9" s="2" t="s">
+      <c r="G9" t="s">
         <v>88</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>90</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
         <v>93</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>95</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:23">
+      <c r="D11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
         <v>98</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>99</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="N11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:23">
+      <c r="E12" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="F12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
+      <c r="G12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:23">
+      <c r="F13" t="s">
         <v>106</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J13" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:23">
+      <c r="E14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
+      <c r="G14" t="s">
         <v>109</v>
       </c>
-      <c r="E13" t="s">
+      <c r="J14" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="E15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15">
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="J19" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15">
+      <c r="J20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="11" t="s">
+    </row>
+    <row r="21" spans="5:15">
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="G17" t="s">
+    <row r="22" spans="5:15">
+      <c r="G22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="G18" t="s">
+    <row r="24" spans="5:15">
+      <c r="G24" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="3" t="s">
+    </row>
+    <row r="25" spans="5:15">
+      <c r="G25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="J19" s="3" t="s">
+    <row r="26" spans="5:15">
+      <c r="N26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="J20" s="3" t="s">
+    <row r="27" spans="5:15">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
+      <c r="N27" t="s">
         <v>126</v>
       </c>
-      <c r="G21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="O27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
+    <row r="28" spans="5:15">
+      <c r="E28" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G28" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="G24" t="s">
+      <c r="L28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="G25" t="s">
+    <row r="29" spans="5:15">
+      <c r="L29" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="L27" t="s">
+    <row r="30" spans="5:15">
+      <c r="L30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="N27" t="s">
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="G28" s="7" t="s">
+    <row r="34" spans="9:9">
+      <c r="I34" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="L28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="L29" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="L30" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2357,8 +2386,8 @@
   <sheetPr/>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2379,276 +2408,276 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" t="s">
         <v>167</v>
-      </c>
-      <c r="S2" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" t="s">
         <v>172</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="N3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="U3" t="s">
         <v>177</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
         <v>181</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>182</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="U4" t="s">
         <v>187</v>
-      </c>
-      <c r="K4" t="s">
-        <v>166</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="U4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="U5" t="s">
         <v>196</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="U5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="B8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/各类堆栈.xlsx
+++ b/各类堆栈.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="非娱乐向2" sheetId="3" r:id="rId1"/>
     <sheet name="娱乐主题" sheetId="2" r:id="rId2"/>
+    <sheet name="思考模型" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="251">
   <si>
     <t>日程</t>
   </si>
@@ -525,7 +526,7 @@
     <t>书籍阅读、总结和输出</t>
   </si>
   <si>
-    <t>加缪</t>
+    <t>不能承受</t>
   </si>
   <si>
     <t>日本 线下恋爱</t>
@@ -577,39 +578,42 @@
     <t>清月已经不困</t>
   </si>
   <si>
+    <t>加缪</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>神界原罪</t>
+  </si>
+  <si>
+    <t>早期人类学</t>
+  </si>
+  <si>
+    <t>渤海小li</t>
+  </si>
+  <si>
+    <t>满洲国</t>
+  </si>
+  <si>
+    <t>稚嫩的魔法师</t>
+  </si>
+  <si>
+    <t>邹节棍</t>
+  </si>
+  <si>
+    <t>理论体系</t>
+  </si>
+  <si>
+    <t>训练</t>
+  </si>
+  <si>
+    <t>小米米沙</t>
+  </si>
+  <si>
     <t>哲学家大榜</t>
   </si>
   <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>神界原罪</t>
-  </si>
-  <si>
-    <t>早期人类学</t>
-  </si>
-  <si>
-    <t>渤海小li</t>
-  </si>
-  <si>
-    <t>满洲国</t>
-  </si>
-  <si>
-    <t>稚嫩的魔法师</t>
-  </si>
-  <si>
-    <t>邹节棍</t>
-  </si>
-  <si>
-    <t>理论体系</t>
-  </si>
-  <si>
-    <t>训练</t>
-  </si>
-  <si>
-    <t>小米米沙</t>
-  </si>
-  <si>
     <t>城市</t>
   </si>
   <si>
@@ -689,6 +693,114 @@
   </si>
   <si>
     <t>彝族歌曲、电影、文化、文学</t>
+  </si>
+  <si>
+    <t>核心任务</t>
+  </si>
+  <si>
+    <t>赚钱系统</t>
+  </si>
+  <si>
+    <t>影响力和社会身份</t>
+  </si>
+  <si>
+    <t>人际关系</t>
+  </si>
+  <si>
+    <t>柳永恋爱+FI爱好</t>
+  </si>
+  <si>
+    <t>意义项目</t>
+  </si>
+  <si>
+    <t>每日行动</t>
+  </si>
+  <si>
+    <t>元SOP（mindmanager同步）</t>
+  </si>
+  <si>
+    <t>苦恼问题</t>
+  </si>
+  <si>
+    <t>写文章</t>
+  </si>
+  <si>
+    <t>生老病死</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>完善一个细节较多的项目（如量化工程细节），如何和ai配合</t>
+  </si>
+  <si>
+    <t>焦虑，让我没有心情娱乐</t>
+  </si>
+  <si>
+    <t>影响力玉社会身份</t>
+  </si>
+  <si>
+    <t>开店</t>
+  </si>
+  <si>
+    <t>写作</t>
+  </si>
+  <si>
+    <t>量化a</t>
+  </si>
+  <si>
+    <t>做群</t>
+  </si>
+  <si>
+    <t>从0开始，建构一个结构复杂的项目，如何和ai配合，如何利用人的力量</t>
+  </si>
+  <si>
+    <t>AI时代，我的一人公司指南：我的竞争者会很卷</t>
+  </si>
+  <si>
+    <t>量化b</t>
+  </si>
+  <si>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>读文章（知乎、小红书图文、微信号）</t>
+  </si>
+  <si>
+    <t>色站</t>
+  </si>
+  <si>
+    <t>？？？？</t>
+  </si>
+  <si>
+    <t>读视频（小红书、b站）</t>
+  </si>
+  <si>
+    <t>同日处理多个任务的SOP（配合纸质笔记本）</t>
+  </si>
+  <si>
+    <t>健康app</t>
+  </si>
+  <si>
+    <t>精读、速读、复读书</t>
+  </si>
+  <si>
+    <t>对不同输入信息的处理应对方式（考虑这些信息的来源、目的。如鲁社长等；考虑去处，如：框架式，如鲁社长分析结构；条理式，如）</t>
+  </si>
+  <si>
+    <t>问ai，获得答案</t>
+  </si>
+  <si>
+    <t>如何扩展一个已有的项目</t>
+  </si>
+  <si>
+    <t>x 发散性行动</t>
+  </si>
+  <si>
+    <t>如何推广一个已有的项目</t>
+  </si>
+  <si>
+    <t>如何从新开始做一个境外电商项目（卖水晶）</t>
   </si>
 </sst>
 </file>
@@ -701,7 +813,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +833,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1277,133 +1396,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1423,6 +1542,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1442,9 +1564,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1886,8 +2005,8 @@
   <sheetPr/>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1968,7 +2087,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1977,25 +2096,25 @@
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="P2" t="s">
@@ -2009,25 +2128,25 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -2041,7 +2160,7 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
@@ -2136,7 +2255,7 @@
       <c r="D7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G7" t="s">
@@ -2347,7 +2466,7 @@
       <c r="E28" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="8" t="s">
         <v>129</v>
       </c>
       <c r="L28" t="s">
@@ -2355,12 +2474,12 @@
       </c>
     </row>
     <row r="29" spans="5:15">
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="5:15">
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2387,7 +2506,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2437,7 +2556,7 @@
       <c r="J1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2452,7 +2571,7 @@
       <c r="O1" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>71</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2478,7 +2597,7 @@
       <c r="B2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>156</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2505,7 +2624,7 @@
       <c r="Q2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>165</v>
       </c>
       <c r="T2" s="3" t="s">
@@ -2543,7 +2662,7 @@
       <c r="Q3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" t="s">
         <v>176</v>
       </c>
       <c r="U3" t="s">
@@ -2581,100 +2700,103 @@
       <c r="Q4" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="S4" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="U4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
@@ -2685,4 +2807,173 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="14" max="14" width="68.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N5" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="N10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="K12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="N13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="K14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="N15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/各类堆栈.xlsx
+++ b/各类堆栈.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="259">
   <si>
     <t>日程</t>
   </si>
@@ -716,10 +716,16 @@
     <t>每日行动</t>
   </si>
   <si>
+    <t>苦恼问题</t>
+  </si>
+  <si>
+    <t>新技能</t>
+  </si>
+  <si>
     <t>元SOP（mindmanager同步）</t>
   </si>
   <si>
-    <t>苦恼问题</t>
+    <t>水晶</t>
   </si>
   <si>
     <t>写文章</t>
@@ -731,12 +737,15 @@
     <t>运动</t>
   </si>
   <si>
+    <t>焦虑，让我没有心情娱乐</t>
+  </si>
+  <si>
+    <t>书法</t>
+  </si>
+  <si>
     <t>完善一个细节较多的项目（如量化工程细节），如何和ai配合</t>
   </si>
   <si>
-    <t>焦虑，让我没有心情娱乐</t>
-  </si>
-  <si>
     <t>影响力玉社会身份</t>
   </si>
   <si>
@@ -746,51 +755,60 @@
     <t>写作</t>
   </si>
   <si>
+    <t>唱歌</t>
+  </si>
+  <si>
+    <t>做群</t>
+  </si>
+  <si>
+    <t>AI时代，我的一人公司指南：我的竞争者会很卷</t>
+  </si>
+  <si>
+    <t>摄影</t>
+  </si>
+  <si>
+    <t>从0开始，建构一个结构复杂的项目，如何和ai配合，如何利用人的力量</t>
+  </si>
+  <si>
     <t>量化a</t>
   </si>
   <si>
-    <t>做群</t>
-  </si>
-  <si>
-    <t>从0开始，建构一个结构复杂的项目，如何和ai配合，如何利用人的力量</t>
-  </si>
-  <si>
-    <t>AI时代，我的一人公司指南：我的竞争者会很卷</t>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>读文章（知乎、小红书图文、微信号）</t>
   </si>
   <si>
     <t>量化b</t>
   </si>
   <si>
-    <t>交流</t>
-  </si>
-  <si>
-    <t>读文章（知乎、小红书图文、微信号）</t>
+    <t>？？？？</t>
+  </si>
+  <si>
+    <t>读视频（小红书、b站）</t>
+  </si>
+  <si>
+    <t>同日处理多个任务的SOP（配合纸质笔记本）</t>
   </si>
   <si>
     <t>色站</t>
   </si>
   <si>
-    <t>？？？？</t>
-  </si>
-  <si>
-    <t>读视频（小红书、b站）</t>
-  </si>
-  <si>
-    <t>同日处理多个任务的SOP（配合纸质笔记本）</t>
+    <t>精读、速读、复读书</t>
   </si>
   <si>
     <t>健康app</t>
   </si>
   <si>
-    <t>精读、速读、复读书</t>
-  </si>
-  <si>
     <t>对不同输入信息的处理应对方式（考虑这些信息的来源、目的。如鲁社长等；考虑去处，如：框架式，如鲁社长分析结构；条理式，如）</t>
   </si>
   <si>
     <t>问ai，获得答案</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>如何扩展一个已有的项目</t>
   </si>
   <si>
@@ -801,6 +819,12 @@
   </si>
   <si>
     <t>如何从新开始做一个境外电商项目（卖水晶）</t>
+  </si>
+  <si>
+    <t>深度哲学思考 - 当大家都vibe coding之后，整个生态怎样？会对谁有利？</t>
+  </si>
+  <si>
+    <t>自媒体几个号 + 最快速度完成任务</t>
   </si>
 </sst>
 </file>
@@ -2812,15 +2836,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="14" max="14" width="68.375" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="17" max="17" width="68.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2845,11 +2870,14 @@
       <c r="K1" t="s">
         <v>221</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" t="s">
         <v>222</v>
       </c>
+      <c r="O1" t="s">
+        <v>223</v>
+      </c>
       <c r="Q1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2857,36 +2885,42 @@
         <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="M3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" t="s">
+        <v>230</v>
       </c>
       <c r="Q3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="O4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2894,16 +2928,19 @@
         <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
-      </c>
-      <c r="N5" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="M5" t="s">
+        <v>237</v>
+      </c>
+      <c r="O5" t="s">
+        <v>238</v>
       </c>
       <c r="Q5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2911,65 +2948,83 @@
         <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
-      </c>
-      <c r="N7" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="C8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K8" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="C9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="N10" t="s">
-        <v>245</v>
+      <c r="Q10" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="K12" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="N13" t="s">
-        <v>247</v>
+      <c r="M13" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="K14" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="N15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" t="s">
-        <v>250</v>
+      <c r="Q15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="Q17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="17:17">
+      <c r="Q19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="17:17">
+      <c r="Q21" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
